--- a/tests/test_building_heating_demand_dummy_heater_DE_energy_needs0.xlsx
+++ b/tests/test_building_heating_demand_dummy_heater_DE_energy_needs0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,72 +486,132 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Heat Loss from Building [kWh//a*m2)]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Heat Transfer from TABULA [kWh/(a*m2)]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Outside Temperature HiSim Weather [°C]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Outside Temperature HiSim Input Data [°C]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio Weather/Input Outside Temperatures</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Mean GHI HiSim Weather [W/m2]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Mean GHI HiSim Input Data [W/m2]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio Weather/Input GHI</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Sum GHI HiSim Weather [W/m2]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Sum GHI HiSim Input Data [W/m2]</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio Weather/Input GHI Sum</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Thermal Mass Temperature [°C]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Indoor Air Temperature [°C]</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Max Thermal Demand [W]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Transmission for Windows and Doors, based on ISO 13790 (H_tr_w) [W/K]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>External Part of Transmission for Opaque Surfaces, based on ISO 13790 (H_tr_em) [W/K]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Internal Part of Transmission for Opaque Surfaces, based on ISO 13790 (H_tr_ms) [W/K]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Transmission between Indoor Air and Internal Surface, based on ISO 13790 (H_tr_is) [W/K]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Thermal Conductance by Ventilation, based on TABULA (H_ve) [W/K]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Conditioned Floor Area (A_f) [m2]</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Floor Related Thermal Capacitance of Thermal Mass, based on ISO 13790 [kWh/m2.K]</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Floor Related Thermal Capacitance of Thermal Mass, based on TABULA [kWh/m2.K]</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Annual Floor Related Total Heat Loss, based on TABULA (Q_ht) [kWh/m2.a]</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Annual Floor Related Internal Heat Gain, based on TABULA (Q_int) [kWh/m2.a]</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Annual Floor Related Solar Heat Gain, based on TABULA (Q_sol) [kWh/m2.a]</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Annual Floor Related Heating Demand, based on TABULA (Q_h_nd) [kWh/m2.a]</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 23</t>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 35</t>
         </is>
       </c>
     </row>
@@ -589,45 +649,81 @@
         <v>1.73</v>
       </c>
       <c r="K2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>246</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.99543913612618</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64015860</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U2" t="n">
+        <v>60</v>
+      </c>
+      <c r="V2" t="n">
+        <v>17.63024370410934</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19.61009098157832</v>
+      </c>
+      <c r="X2" t="n">
         <v>38363.05</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Y2" t="n">
         <v>152.58</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Z2" t="n">
         <v>848.4299999999999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AA2" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AB2" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AC2" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
         <v>302.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AE2" t="n">
         <v>594000</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AF2" t="n">
         <v>0.04</v>
       </c>
-      <c r="T2" t="n">
-        <v>246</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="AG2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="n">
         <v>14</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AI2" t="n">
         <v>218.5</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,45 +759,81 @@
         <v>1.76</v>
       </c>
       <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>108</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10.99543913612618</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>64015860</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U3" t="n">
+        <v>60</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19.26274599703972</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19.66809349515517</v>
+      </c>
+      <c r="X3" t="n">
         <v>15530.35</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Y3" t="n">
         <v>70.66</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Z3" t="n">
         <v>170.42</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AA3" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AB3" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AC3" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
         <v>302.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AE3" t="n">
         <v>594000</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AF3" t="n">
         <v>0.04</v>
       </c>
-      <c r="T3" t="n">
-        <v>108</v>
-      </c>
-      <c r="U3" t="n">
-        <v>16</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
         <v>11</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AI3" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -737,45 +869,81 @@
         <v>1.79</v>
       </c>
       <c r="K4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>74</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10.99543913612618</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>64015860</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U4" t="n">
+        <v>60</v>
+      </c>
+      <c r="V4" t="n">
+        <v>19.59114330035476</v>
+      </c>
+      <c r="W4" t="n">
+        <v>19.71647796770033</v>
+      </c>
+      <c r="X4" t="n">
         <v>9565.049999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Y4" t="n">
         <v>43.48</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Z4" t="n">
         <v>77.42</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AA4" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AB4" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AC4" t="n">
         <v>130.07</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
         <v>302.5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AE4" t="n">
         <v>594000</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AF4" t="n">
         <v>0.04</v>
       </c>
-      <c r="T4" t="n">
-        <v>74</v>
-      </c>
-      <c r="U4" t="n">
-        <v>16</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="AG4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AI4" t="n">
         <v>50.7</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -811,45 +979,81 @@
         <v>1.73</v>
       </c>
       <c r="K5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>246</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.99528357918332</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4267723.999999994</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>17.63025506077818</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19.61008251117151</v>
+      </c>
+      <c r="X5" t="n">
         <v>38363.05</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Y5" t="n">
         <v>152.58</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Z5" t="n">
         <v>848.4299999999999</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AA5" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AB5" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AC5" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
         <v>302.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AE5" t="n">
         <v>594000</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AF5" t="n">
         <v>0.04</v>
       </c>
-      <c r="T5" t="n">
-        <v>246</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="AG5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="n">
         <v>14</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AI5" t="n">
         <v>218.5</v>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -885,45 +1089,81 @@
         <v>1.76</v>
       </c>
       <c r="K6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>108</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.99528357918332</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4267723.999999994</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>19.26279179153585</v>
+      </c>
+      <c r="W6" t="n">
+        <v>19.6681248886093</v>
+      </c>
+      <c r="X6" t="n">
         <v>15530.35</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Y6" t="n">
         <v>70.66</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Z6" t="n">
         <v>170.42</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AA6" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AB6" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AC6" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
         <v>302.5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AE6" t="n">
         <v>594000</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AF6" t="n">
         <v>0.04</v>
       </c>
-      <c r="T6" t="n">
-        <v>108</v>
-      </c>
-      <c r="U6" t="n">
-        <v>16</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="AG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH6" t="n">
         <v>11</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AI6" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -959,45 +1199,81 @@
         <v>1.79</v>
       </c>
       <c r="K7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.99528357918332</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4267723.999999994</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>19.59116049947741</v>
+      </c>
+      <c r="W7" t="n">
+        <v>19.716481129223</v>
+      </c>
+      <c r="X7" t="n">
         <v>9565.049999999999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Y7" t="n">
         <v>43.48</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Z7" t="n">
         <v>77.42</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AA7" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AB7" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AC7" t="n">
         <v>130.07</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
         <v>302.5</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AE7" t="n">
         <v>594000</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AF7" t="n">
         <v>0.04</v>
       </c>
-      <c r="T7" t="n">
-        <v>74</v>
-      </c>
-      <c r="U7" t="n">
-        <v>16</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="AG7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH7" t="n">
         <v>9</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AI7" t="n">
         <v>50.7</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,45 +1309,81 @@
         <v>1.73</v>
       </c>
       <c r="K8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>246</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.99478357472412</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1066931.000000002</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>17.63032206360771</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19.61003822824254</v>
+      </c>
+      <c r="X8" t="n">
         <v>38363.05</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Y8" t="n">
         <v>152.58</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Z8" t="n">
         <v>848.4299999999999</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AA8" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AB8" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AC8" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
         <v>302.5</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AE8" t="n">
         <v>594000</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AF8" t="n">
         <v>0.04</v>
       </c>
-      <c r="T8" t="n">
-        <v>246</v>
-      </c>
-      <c r="U8" t="n">
-        <v>16</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
         <v>14</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AI8" t="n">
         <v>218.5</v>
       </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1107,45 +1419,81 @@
         <v>1.76</v>
       </c>
       <c r="K9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.99478357472412</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1066931.000000002</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>19.2629485294666</v>
+      </c>
+      <c r="W9" t="n">
+        <v>19.66818950865235</v>
+      </c>
+      <c r="X9" t="n">
         <v>15530.35</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Y9" t="n">
         <v>70.66</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Z9" t="n">
         <v>170.42</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AA9" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AB9" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AC9" t="n">
         <v>154.28</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
         <v>302.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AE9" t="n">
         <v>594000</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AF9" t="n">
         <v>0.04</v>
       </c>
-      <c r="T9" t="n">
-        <v>108</v>
-      </c>
-      <c r="U9" t="n">
-        <v>16</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="AG9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="n">
         <v>11</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AI9" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1181,45 +1529,81 @@
         <v>1.79</v>
       </c>
       <c r="K10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>74</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.99478357472412</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1066931.000000002</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>19.5912623862496</v>
+      </c>
+      <c r="W10" t="n">
+        <v>19.71650078979928</v>
+      </c>
+      <c r="X10" t="n">
         <v>9565.049999999999</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Y10" t="n">
         <v>43.48</v>
       </c>
-      <c r="M10" t="n">
+      <c r="Z10" t="n">
         <v>77.42</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AA10" t="n">
         <v>6881.88</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AB10" t="n">
         <v>4696.31</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AC10" t="n">
         <v>130.07</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
         <v>302.5</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AE10" t="n">
         <v>594000</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AF10" t="n">
         <v>0.04</v>
       </c>
-      <c r="T10" t="n">
-        <v>74</v>
-      </c>
-      <c r="U10" t="n">
-        <v>16</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="AG10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="n">
         <v>9</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AI10" t="n">
         <v>50.7</v>
       </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/test_building_heating_demand_dummy_heater_DE_energy_needs0.xlsx
+++ b/tests/test_building_heating_demand_dummy_heater_DE_energy_needs0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,7 +1095,7 @@
         <v>108</v>
       </c>
       <c r="M6" t="n">
-        <v>10.99528357918332</v>
+        <v>10.99528357918331</v>
       </c>
       <c r="N6" t="n">
         <v>10.99549086757991</v>
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="M7" t="n">
-        <v>10.99528357918332</v>
+        <v>10.99528357918331</v>
       </c>
       <c r="N7" t="n">
         <v>10.99549086757991</v>
@@ -1604,6 +1604,336 @@
         <v>50.7</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DE.N.SFH.03.Gen.ReEx.001.001</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>220.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>246</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10.99478357472412</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1066931.000000002</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17.63032206360771</v>
+      </c>
+      <c r="W11" t="n">
+        <v>19.61003822824254</v>
+      </c>
+      <c r="X11" t="n">
+        <v>38363.05</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>152.58</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>848.4299999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6881.88</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>4696.31</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>154.28</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>594000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DE.N.SFH.03.Gen.ReEx.001.002</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10.99478357472412</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1066931.000000002</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19.2629485294666</v>
+      </c>
+      <c r="W12" t="n">
+        <v>19.66818950865235</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15530.35</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>70.66</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>170.42</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6881.88</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4696.31</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>154.28</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>594000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DE.N.SFH.03.Gen.ReEx.001.003</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>74</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.99543913612618</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.99549086757991</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>121.7957762557078</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>64015860</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1066931</v>
+      </c>
+      <c r="U13" t="n">
+        <v>60</v>
+      </c>
+      <c r="V13" t="n">
+        <v>19.59114330035476</v>
+      </c>
+      <c r="W13" t="n">
+        <v>19.71647796770033</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9565.049999999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>77.42</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6881.88</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4696.31</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>130.07</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>594000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
